--- a/biology/Zoologie/Cordulia_shurtleffii/Cordulia_shurtleffii.xlsx
+++ b/biology/Zoologie/Cordulia_shurtleffii/Cordulia_shurtleffii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordulia shurtleffii est une espèce nord-américaine de libellules faisant partie de la famille des Corduliidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1]. Son nom vernaculaire est Cordulie de Shurtleffer.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordulia shurtleffii est une espèce nord-américaine de libellules faisant partie de la famille des Corduliidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Son nom vernaculaire est Cordulie de Shurtleffer.
 </t>
         </is>
       </c>
@@ -511,11 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La cordulie de Shurtleffer est une libellule de taille moyenne mesurant entre 45-50 mm de long. Ses yeux sont vert émeraude et le thorax est brun avec des reflets métalliques verts. On retrouve également une bonne pilosité à cet endroit. L'abdomen est sombre avec des reflets métalliques. En sa base, on retrouve un anneau de couleur blanche. Les ailes antérieures et postérieures sont transparentes et tendent à brunir avec le temps. Le mâle et la femelle sont semblables[2].
-Espèce similaire
-Dorocordulia lepida</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cordulie de Shurtleffer est une libellule de taille moyenne mesurant entre 45-50 mm de long. Ses yeux sont vert émeraude et le thorax est brun avec des reflets métalliques verts. On retrouve également une bonne pilosité à cet endroit. L'abdomen est sombre avec des reflets métalliques. En sa base, on retrouve un anneau de couleur blanche. Les ailes antérieures et postérieures sont transparentes et tendent à brunir avec le temps. Le mâle et la femelle sont semblables.
+</t>
         </is>
       </c>
     </row>
@@ -540,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On la trouve au Canada, notamment au Québec[3] et dans le nord des États-Unis[4].
-</t>
+          <t>Espèce similaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dorocordulia lepida</t>
         </is>
       </c>
     </row>
@@ -571,12 +589,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve au Canada, notamment au Québec et dans le nord des États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cordulia_shurtleffii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordulia_shurtleffii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce semble préférer les lacs et les étangs[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce semble préférer les lacs et les étangs.
 </t>
         </is>
       </c>
